--- a/pythonProject/Results_2/time_results.xlsx
+++ b/pythonProject/Results_2/time_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic\MSc\Masters Project 2023\Masters-Project-2023\pythonProject\Results_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E73A2D-E39A-4309-B8C4-D7F605889417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38555FED-0F50-4320-BF7B-7490C718E689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -391,15 +391,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2191" workbookViewId="0">
-      <selection activeCell="K2245" sqref="K2245"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
